--- a/data/Stock Type-Group Membership.xlsx
+++ b/data/Stock Type-Group Membership.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr showBorderUnselectedTables="0" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Desktop\A249\LUCAS Base Model - Template Dev\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\stsimcbmcfs3\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F8B429-5033-4425-A774-B96924CFC3B0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F940F3B3-38B2-41AF-9245-31B372C1389E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="4" xr2:uid="{56AAC770-6DE2-4EF7-855F-DB983E7869A2}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="82">
   <si>
     <t>Stock Type</t>
   </si>
@@ -275,6 +275,21 @@
   </si>
   <si>
     <t>Table</t>
+  </si>
+  <si>
+    <t>DOM: Deadwood</t>
+  </si>
+  <si>
+    <t>DOM: Standing Deadwood</t>
+  </si>
+  <si>
+    <t>DOM: Down Deadwood</t>
+  </si>
+  <si>
+    <t>DOM: Soil</t>
+  </si>
+  <si>
+    <t>DOM: Litter</t>
   </si>
 </sst>
 </file>
@@ -379,30 +394,6 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <font>
-        <b/>
-        <color rgb="FF000000"/>
-      </font>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFD3D3D3"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color rgb="FFA9A9A9"/>
-        </left>
-        <right style="thin">
-          <color rgb="FFA9A9A9"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -429,6 +420,30 @@
         </bottom>
       </border>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF000000"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFD3D3D3"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color rgb="FFA9A9A9"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFA9A9A9"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -443,14 +458,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A86A1EE8-A74F-4A0A-8333-94CDA5E9CE2B}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{A86A1EE8-A74F-4A0A-8333-94CDA5E9CE2B}" name="Table_WorkbookManifest" displayName="Table_WorkbookManifest" ref="A1:E2" totalsRowShown="0" headerRowDxfId="6" headerRowBorderDxfId="5">
   <autoFilter ref="A1:E2" xr:uid="{4E89B00F-DC60-4C35-8039-A71CD59A66A7}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{4A6F5C24-5360-4AA0-AF1F-7B55B5A5C1B3}" name="Name" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{FB66C072-C1BF-4C25-99B2-F5CF693B651F}" name="Display Name" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{9E17A336-8B30-4E8B-8433-3F26A2EC31AF}" name="Reference Type" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{074D78A0-BD5D-44D6-9536-8AC6031F253D}" name="Data Location" dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{64BEB192-5FBA-4D17-89E1-6D763B564BE4}" name="Column Names" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{4A6F5C24-5360-4AA0-AF1F-7B55B5A5C1B3}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{FB66C072-C1BF-4C25-99B2-F5CF693B651F}" name="Display Name" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{9E17A336-8B30-4E8B-8433-3F26A2EC31AF}" name="Reference Type" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{074D78A0-BD5D-44D6-9536-8AC6031F253D}" name="Data Location" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{64BEB192-5FBA-4D17-89E1-6D763B564BE4}" name="Column Names" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1397,18 +1412,18 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69B0D0A-B097-49CD-BD0E-5B76084FBCFB}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.7109375" style="6" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.7109375" style="8" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="24.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.7109375" style="8" bestFit="1" customWidth="1"/>
     <col min="4" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
@@ -1556,7 +1571,7 @@
         <v>12</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>14</v>
+        <v>81</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1564,15 +1579,15 @@
         <v>12</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1580,7 +1595,7 @@
         <v>15</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1588,20 +1603,20 @@
         <v>15</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="6" t="s">
         <v>14</v>
@@ -1609,7 +1624,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>6</v>
@@ -1617,7 +1632,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B26" s="6" t="s">
         <v>13</v>
@@ -1625,142 +1640,250 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>6</v>
+        <v>81</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>6</v>
+        <v>80</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B43" s="6" t="s">
+      <c r="B52" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="B56" s="6" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:C43" xr:uid="{96BD963B-62B2-4F01-A7A8-5C7DADFC6AC8}"/>
+  <autoFilter ref="A1:C43" xr:uid="{96BD963B-62B2-4F01-A7A8-5C7DADFC6AC8}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C74">
+      <sortCondition ref="A1:A43"/>
+    </sortState>
+  </autoFilter>
   <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="You must choose 'StockTypeID' from the supplied list of items." sqref="A2:A1048576" xr:uid="{9A1FD701-C790-4EC6-9120-21C758BB3B7A}">
       <formula1>Range_stsimsf_StockType</formula1>
